--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3085.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3085.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.120654700126505</v>
+        <v>1.263398051261902</v>
       </c>
       <c r="B1">
-        <v>2.359171475266151</v>
+        <v>2.262205839157104</v>
       </c>
       <c r="C1">
-        <v>3.944556578935245</v>
+        <v>4.587213039398193</v>
       </c>
       <c r="D1">
-        <v>4.015429650847292</v>
+        <v>2.910417556762695</v>
       </c>
       <c r="E1">
-        <v>1.278761327998111</v>
+        <v>1.36284339427948</v>
       </c>
     </row>
   </sheetData>
